--- a/docs/model_evaluation.xlsx
+++ b/docs/model_evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\git\drone_steering\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.schambach\Desktop\DSR\drone_steering\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28C269-9C3A-48FA-B404-71B2E3BFBAC8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B43DA-2BD7-4E08-A9C5-FCEE1E878A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10485" xr2:uid="{630AA035-5393-40B2-AC70-A352E13C68C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10488" xr2:uid="{630AA035-5393-40B2-AC70-A352E13C68C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>model_gesture_lstm_ip50_tr0</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>Rating from Live Trial</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Too sensitive</t>
+  </si>
+  <si>
+    <t>A bit too sensitive for static postures</t>
+  </si>
+  <si>
+    <t>15k zeros, 5000 labels</t>
+  </si>
+  <si>
+    <t>sanozero5000</t>
+  </si>
+  <si>
+    <t>12 zeros, 4000 labels</t>
+  </si>
+  <si>
+    <t>sanozero4000</t>
+  </si>
+  <si>
+    <t>Not sensitive</t>
   </si>
 </sst>
 </file>
@@ -501,22 +525,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09B350-38BB-436A-8A61-F51A45108B5B}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D15" sqref="D15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="4.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="4.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -528,8 +554,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,8 +566,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -550,63 +579,135 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -616,8 +717,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -627,8 +730,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -638,19 +743,35 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -660,61 +781,99 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:H19">
